--- a/Real_Systems.xlsx
+++ b/Real_Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelord/Desktop/Astro Research/AstroResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749D22C-CC35-7943-8C4A-161445F8C2A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C94B57-FEFB-644D-B96B-5E7C1E8B7BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25640" windowHeight="15900" xr2:uid="{87C70131-66F9-804D-9602-2234C127E135}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{87C70131-66F9-804D-9602-2234C127E135}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>System</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>GRS 1915+105</t>
+  </si>
+  <si>
+    <t>diff a1's</t>
+  </si>
+  <si>
+    <t>possible triple systems</t>
+  </si>
+  <si>
+    <t>Periods tested for</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,11 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCEFF24-A537-C546-BB6A-829C30859619}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +507,7 @@
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +541,11 @@
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -558,8 +579,11 @@
       <c r="K2" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,8 +615,11 @@
       <c r="K3" s="1">
         <v>0.20630000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,7 +639,7 @@
       <c r="G4" s="1">
         <v>1.78</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>4.4400000000000004</v>
       </c>
       <c r="I4" s="1">
@@ -624,8 +651,11 @@
       <c r="K4" s="1">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -657,8 +687,11 @@
       <c r="K5" s="1">
         <v>0.1605</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -678,8 +711,23 @@
       <c r="G6" s="1">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.4194</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.4194</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -699,8 +747,23 @@
       <c r="G7" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2457</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.2457</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,8 +783,23 @@
       <c r="G8" s="1">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -741,8 +819,23 @@
       <c r="G9" s="1">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -762,8 +855,23 @@
       <c r="G10" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -785,8 +893,23 @@
       <c r="G11" s="1">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="4">
+        <v>47.91</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18760</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.1477</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -806,8 +929,23 @@
       <c r="G12" s="1">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2097</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.629</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.2097</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -827,8 +965,23 @@
       <c r="G13" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.4869</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.4869</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -848,8 +1001,23 @@
       <c r="G14" s="1">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>31.84</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5476</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -868,6 +1036,31 @@
       </c>
       <c r="G15" s="1">
         <v>1.51</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
